--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,27 +404,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>exclusivement,TPE,PME,met,place</t>
+          <t>étude,alertant,l',inefficacité,risques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>met en place</t>
+          <t>les risques de</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>un patriotisme économique</t>
+          <t>certains traitements</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>un protectionnisme intelligent</t>
+          <t>de le Covid-19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>protectionnisme,intelligent,dit,constructeurs</t>
+          <t>Covid-19,l',hydroxychloroquine,,</t>
         </is>
       </c>
     </row>
@@ -434,27 +434,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$,$,$,mettre,œuvre</t>
+          <t>qu',l',analyse,propose,48h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>en œuvre de</t>
+          <t>propose sous 48h</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>le protectionnisme intelligent</t>
+          <t>une révision</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>à mettre en</t>
+          <t>de les règles</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>mettre,patriotisme,économique,donner</t>
+          <t>règles,dérogatoires,prescription,,</t>
         </is>
       </c>
     </row>
@@ -464,27 +464,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mettre,œuvre,protectionnisme,intelligent,mettre</t>
+          <t>étude,alertant,l',inefficacité,risques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>en avant de</t>
+          <t>les risques de</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>le patriotisme économique</t>
+          <t>certains traitements de le Covid-19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>pour donner un</t>
+          <t>dont l' hydroxychloroquine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>donner,avantage,entreprises,françaises</t>
+          <t>l',hydroxychloroquine,,,j'</t>
         </is>
       </c>
     </row>
@@ -494,27 +494,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PME,met,place,patriotisme,économique</t>
+          <t>d',étude,alertant,l',inefficacité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>un patriotisme économique</t>
+          <t>l' inefficacité et</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>un protectionnisme intelligent</t>
+          <t>les risques</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>il dit à</t>
+          <t>de certains traitements</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>dit,constructeurs,américains,voulez</t>
+          <t>traitements,Covid-19,l',hydroxychloroquine</t>
         </is>
       </c>
     </row>
@@ -540,27 +540,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>protectionnisme,intelligent,défiscalisation,heures,supplémentaires</t>
+          <t>risques,traitements,Covid-19,l',hydroxychloroquine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>les heures supplémentaires</t>
+          <t>dont l' hydroxychloroquine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>la suppression de le travail</t>
+          <t>,</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>détaché la baisse</t>
+          <t>j' ai saisi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>détaché,baisse,charges,exclusivement</t>
+          <t>j',saisi,HCSP,qu'</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jamais,mis,œuvre,protectionnisme,intelligent</t>
+          <t>48h,révision,règles,dérogatoires,prescription</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>le protectionnisme intelligent</t>
+          <t>dérogatoires de prescription</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>la défiscalisation de les heures</t>
+          <t>,</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>supplémentaires la suppression</t>
+          <t>a indiqué le</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>supplémentaires,suppression,travail,détaché</t>
+          <t>indiqué,ministre,tweet,$</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>patriotisme,économique,protectionnisme,intelligent,dit</t>
+          <t>$,$,$,$,Suite</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>il dit à</t>
+          <t>$ Suite à</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>les constructeurs américains</t>
+          <t>la publication</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>si vous voulez</t>
+          <t>dans The Lancet</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>voulez,aller,faire,voitures</t>
+          <t>The,Lancet,d',étude</t>
         </is>
       </c>
     </row>
@@ -646,59 +646,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>supplémentaires,suppression,travail,détaché,baisse</t>
+          <t>règles,dérogatoires,prescription,,,indiqué</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>la baisse de</t>
+          <t>, a indiqué</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>les charges</t>
+          <t>le ministre</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>mais exclusivement pour</t>
+          <t>dans un tweet</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>exclusivement,TPE,PME,met</t>
+          <t>tweet,$,$,$</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mettre,patriotisme,économique,donner,avantage</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>un avantage à</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>les entreprises françaises</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>dans la commande</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>commande,publique,patriotisme,économique</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -708,166 +686,6 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trump,intéresse,cause,puisqu,met</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>il met en</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>la politique que</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>politique,appelle,vœux,notamment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>charges,exclusivement,TPE,PME,met</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Il met en</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>un patriotisme économique</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>patriotisme,économique,protectionnisme,intelligent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>place,politique,appelle,vœux,notamment</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>longtemps et notamment</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>la politique</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>de patriotisme économique</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>patriotisme,économique,protectionnisme,intelligent</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>intéresse,cause,puisqu,met,place</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>met en place</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>la politique</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>que j’ appelle</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>appelle,vœux,notamment,politique</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,27 +404,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>étude,alertant,l',inefficacité,risques</t>
+          <t>$,$,$,$,Loin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>les risques de</t>
+          <t>$ Loin de</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>certains traitements</t>
+          <t>leurs proches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>de le Covid-19</t>
+          <t>, coincés dans</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Covid-19,l',hydroxychloroquine,,</t>
+          <t>,,coincés,petites,chambres</t>
         </is>
       </c>
     </row>
@@ -434,27 +434,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qu',l',analyse,propose,48h</t>
+          <t>étudiant,,,allés,jusqu’,rationner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>propose sous 48h</t>
+          <t>jusqu’ à rationner</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>une révision</t>
+          <t>leurs repas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>de les règles</t>
+          <t>, faute d’</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>règles,dérogatoires,prescription,,</t>
+          <t>,,faute,d’,argent</t>
         </is>
       </c>
     </row>
@@ -464,27 +464,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>étude,alertant,l',inefficacité,risques</t>
+          <t>d',outre-mer,,,,,jour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>les risques de</t>
+          <t>le jour à</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>certains traitements de le Covid-19</t>
+          <t>le lendemain</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dont l' hydroxychloroquine</t>
+          <t>, dû adapter</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>l',hydroxychloroquine,,,j'</t>
+          <t>,,dû,adapter,quotidien</t>
         </is>
       </c>
     </row>
@@ -494,197 +494,709 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d',étude,alertant,l',inefficacité</t>
+          <t>mars,2020,gouvernement,français,perdu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>l' inefficacité et</t>
+          <t>Après avoir perdu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>les risques</t>
+          <t>leur job étudiant</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>de certains traitements</t>
+          <t>, certains sont</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>traitements,Covid-19,l',hydroxychloroquine</t>
+          <t>,,allés,jusqu’,rationner</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D’,retrouvés,perspective,stage,d’</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>stage ou d’</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>emploi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>, sans diplômes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>,,diplômes,…,sans-papiers</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>,,coincés,petites,chambres,universitaires</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ou dans de</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>les studettes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>, de les</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>,,milliers,d’,étudiants</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>risques,traitements,Covid-19,l',hydroxychloroquine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>dont l' hydroxychloroquine</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gouvernement,français,perdu,job,étudiant</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>leur job étudiant</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>,</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>j' ai saisi</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>j',saisi,HCSP,qu'</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>certains sont allés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>allés,jusqu’,rationner,repas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>48h,révision,règles,dérogatoires,prescription</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>dérogatoires de prescription</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>retrouvés,perspective,stage,d’,emploi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ou d’ emploi</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>,</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>a indiqué le</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>indiqué,ministre,tweet,$</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sans diplômes …</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>diplômes,…,sans-papiers,$</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$,$,$,$,Suite</t>
+          <t>,,milliers,d’,étudiants,étrangers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$ Suite à</t>
+          <t>d’ étudiants étrangers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>la publication</t>
+          <t>,</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>dans The Lancet</t>
+          <t>ou venus de</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The,Lancet,d',étude</t>
+          <t>venus,lointains,départements,d'</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>coincés,petites,chambres,universitaires,studettes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>de les studettes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>de les milliers</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>milliers,d’,étudiants,étrangers</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$,$,$,Loin,proches</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>de leurs proches</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>coincés dans de</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>coincés,petites,chambres,universitaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>,,allés,jusqu’,rationner,repas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rationner leurs repas</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>faute d’ argent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>faute,d’,argent,D’</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>outre-mer,,,,,jour,lendemain</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>à le lendemain</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>dû adapter leur</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>dû,adapter,quotidien,face</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>venus,lointains,départements,d',outre-mer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>départements d' outre-mer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ont , de</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>,,jour,lendemain,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lointains,départements,d',outre-mer,,</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>outre-mer , ont</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>de le jour</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>jour,lendemain,,,dû</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>règles,dérogatoires,prescription,,,indiqué</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>, a indiqué</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>le ministre</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>dans un tweet</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>tweet,$,$,$</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>confinement,imposé,17,mars,2020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mars 2020 par</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>le gouvernement français .</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Après avoir perdu</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>perdu,job,étudiant,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>face,crise,sanitaire,confinement,imposé</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>le confinement imposé</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>le 17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>mars 2020 par</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>mars,2020,gouvernement,français</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>face,crise,sanitaire,confinement,imposé</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>le confinement imposé</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>le 17 mars 2020</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>par le gouvernement</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>gouvernement,français,perdu,job</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>confinement,imposé,17,mars,2020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mars 2020 par</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>le gouvernement français</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>. Après avoir</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>perdu,job,étudiant,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>confinement,imposé,17,mars,2020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mars 2020 par</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>le gouvernement</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>français . Après</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>français,perdu,job,étudiant</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>faute,d’,argent,D’,retrouvés</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sont retrouvés sans</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>perspective de stage</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ou d’ emploi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>d’,emploi,,,diplômes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$,Loin,proches,,,coincés</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>, coincés dans</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>de petites chambres universitaires</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ou dans de</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>studettes,,,milliers,d’</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>emploi,,,diplômes,…,sans-papiers</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>… et sans-papiers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$ $ $</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>$,$,$,$</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>repas,,,faute,d’,argent</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>faute d’ argent</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>D’ autres se</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>D’,retrouvés,perspective,stage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -404,7 +404,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$,$,$,$,Loin</t>
+          <t>$,$,$,Loin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,7 +434,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>étudiant,,,allés,jusqu’,rationner</t>
+          <t>,,allés,jusqu’,rationner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -464,27 +464,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d',outre-mer,,,,,jour</t>
+          <t>2020,gouvernement,français,perdu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>le jour à</t>
+          <t>Après avoir perdu</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>le lendemain</t>
+          <t>leur job étudiant</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>, dû adapter</t>
+          <t>, certains sont</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>,,dû,adapter,quotidien</t>
+          <t>,,allés,jusqu’,rationner</t>
         </is>
       </c>
     </row>
@@ -494,27 +494,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mars,2020,gouvernement,français,perdu</t>
+          <t>outre-mer,,,,,jour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Après avoir perdu</t>
+          <t>le jour à</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>leur job étudiant</t>
+          <t>le lendemain</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>, certains sont</t>
+          <t>, dû adapter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>,,allés,jusqu’,rationner</t>
+          <t>,,dû,adapter,quotidien</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D’,retrouvés,perspective,stage,d’</t>
+          <t>retrouvés,perspective,stage,d’</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>,,coincés,petites,chambres,universitaires</t>
+          <t>coincés,petites,chambres,universitaires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gouvernement,français,perdu,job,étudiant</t>
+          <t>lointains,départements,d',outre-mer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>leur job étudiant</t>
+          <t>départements d' outre-mer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>certains sont allés</t>
+          <t>ont , de</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>allés,jusqu’,rationner,repas</t>
+          <t>,,jour,lendemain,,</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>retrouvés,perspective,stage,d’,emploi</t>
+          <t>milliers,d’,étudiants,étrangers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ou d’ emploi</t>
+          <t>d’ étudiants étrangers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sans diplômes …</t>
+          <t>ou venus de</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>diplômes,…,sans-papiers,$</t>
+          <t>venus,lointains,départements,d'</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>,,milliers,d’,étudiants,étrangers</t>
+          <t>départements,d',outre-mer,,</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>d’ étudiants étrangers</t>
+          <t>outre-mer , ont</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ou venus de</t>
+          <t>de le jour</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>venus,lointains,départements,d'</t>
+          <t>jour,lendemain,,,dû</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires,studettes</t>
+          <t>allés,jusqu’,rationner,repas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>de les studettes</t>
+          <t>rationner leurs repas</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>de les milliers</t>
+          <t>faute d’ argent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>milliers,d’,étudiants,étrangers</t>
+          <t>faute,d’,argent,D’</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$,$,$,Loin,proches</t>
+          <t>perspective,stage,d’,emploi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>de leurs proches</t>
+          <t>ou d’ emploi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>coincés dans de</t>
+          <t>sans diplômes …</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires</t>
+          <t>diplômes,…,sans-papiers,$</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>,,allés,jusqu’,rationner,repas</t>
+          <t>$,$,Loin,proches</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>rationner leurs repas</t>
+          <t>de leurs proches</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>faute d’ argent</t>
+          <t>coincés dans de</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>faute,d’,argent,D’</t>
+          <t>coincés,petites,chambres,universitaires</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>outre-mer,,,,,jour,lendemain</t>
+          <t>,,,,jour,lendemain</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>venus,lointains,départements,d',outre-mer</t>
+          <t>petites,chambres,universitaires,studettes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>départements d' outre-mer</t>
+          <t>de les studettes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ont , de</t>
+          <t>de les milliers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>,,jour,lendemain,,</t>
+          <t>milliers,d’,étudiants,étrangers</t>
         </is>
       </c>
     </row>
@@ -840,12 +840,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lointains,départements,d',outre-mer,,</t>
+          <t>français,perdu,job,étudiant</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>outre-mer , ont</t>
+          <t>leur job étudiant</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>de le jour</t>
+          <t>certains sont allés</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>jour,lendemain,,,dû</t>
+          <t>allés,jusqu’,rationner,repas</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>confinement,imposé,17,mars,2020</t>
+          <t>crise,sanitaire,confinement,imposé</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mars 2020 par</t>
+          <t>le confinement imposé</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>le gouvernement français .</t>
+          <t>le 17 mars 2020</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Après avoir perdu</t>
+          <t>par le gouvernement</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>perdu,job,étudiant,,</t>
+          <t>gouvernement,français,perdu,job</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>face,crise,sanitaire,confinement,imposé</t>
+          <t>imposé,17,mars,2020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>le confinement imposé</t>
+          <t>mars 2020 par</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>le 17</t>
+          <t>le gouvernement</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>mars 2020 par</t>
+          <t>français . Après</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>mars,2020,gouvernement,français</t>
+          <t>français,perdu,job,étudiant</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>face,crise,sanitaire,confinement,imposé</t>
+          <t>imposé,17,mars,2020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>le confinement imposé</t>
+          <t>mars 2020 par</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>le 17 mars 2020</t>
+          <t>le gouvernement français</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>par le gouvernement</t>
+          <t>. Après avoir</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>gouvernement,français,perdu,job</t>
+          <t>perdu,job,étudiant,,</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>confinement,imposé,17,mars,2020</t>
+          <t>imposé,17,mars,2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>le gouvernement français</t>
+          <t>le gouvernement français .</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>. Après avoir</t>
+          <t>Après avoir perdu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>confinement,imposé,17,mars,2020</t>
+          <t>crise,sanitaire,confinement,imposé</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>le confinement imposé</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>le 17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>mars 2020 par</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>le gouvernement</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>français . Après</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>français,perdu,job,étudiant</t>
+          <t>mars,2020,gouvernement,français</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>faute,d’,argent,D’,retrouvés</t>
+          <t>d’,argent,D’,retrouvés</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$,Loin,proches,,,coincés</t>
+          <t>Loin,proches,,,coincés</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>emploi,,,diplômes,…,sans-papiers</t>
+          <t>,,diplômes,…,sans-papiers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>repas,,,faute,d’,argent</t>
+          <t>,,faute,d’,argent</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">

--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -434,27 +434,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>,,allés,jusqu’,rationner</t>
+          <t>outre-mer,,,,,jour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jusqu’ à rationner</t>
+          <t>le jour à</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>leurs repas</t>
+          <t>le lendemain</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>, faute d’</t>
+          <t>, dû adapter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>,,faute,d’,argent</t>
+          <t>,,dû,adapter,quotidien</t>
         </is>
       </c>
     </row>
@@ -494,27 +494,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>outre-mer,,,,,jour</t>
+          <t>retrouvés,perspective,stage,d’</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>le jour à</t>
+          <t>stage ou d’</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>le lendemain</t>
+          <t>emploi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>, dû adapter</t>
+          <t>, sans diplômes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>,,dû,adapter,quotidien</t>
+          <t>,,diplômes,…,sans-papiers</t>
         </is>
       </c>
     </row>
@@ -524,27 +524,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>retrouvés,perspective,stage,d’</t>
+          <t>coincés,petites,chambres,universitaires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stage ou d’</t>
+          <t>ou dans de</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>emploi</t>
+          <t>les studettes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>, sans diplômes</t>
+          <t>, de les</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>,,diplômes,…,sans-papiers</t>
+          <t>,,milliers,d’,étudiants</t>
         </is>
       </c>
     </row>
@@ -554,27 +554,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires</t>
+          <t>,,allés,jusqu’,rationner</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ou dans de</t>
+          <t>jusqu’ à rationner</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>les studettes</t>
+          <t>leurs repas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>, de les</t>
+          <t>, faute d’</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>,,milliers,d’,étudiants</t>
+          <t>,,faute,d’,argent</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lointains,départements,d',outre-mer</t>
+          <t>petites,chambres,universitaires,studettes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>départements d' outre-mer</t>
+          <t>de les studettes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ont , de</t>
+          <t>de les milliers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>,,jour,lendemain,,</t>
+          <t>milliers,d’,étudiants,étrangers</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>milliers,d’,étudiants,étrangers</t>
+          <t>$,$,Loin,proches</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>d’ étudiants étrangers</t>
+          <t>de leurs proches</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ou venus de</t>
+          <t>coincés dans de</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>venus,lointains,départements,d'</t>
+          <t>coincés,petites,chambres,universitaires</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>départements,d',outre-mer,,</t>
+          <t>français,perdu,job,étudiant</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>outre-mer , ont</t>
+          <t>leur job étudiant</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>de le jour</t>
+          <t>certains sont allés</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>jour,lendemain,,,dû</t>
+          <t>allés,jusqu’,rationner,repas</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>allés,jusqu’,rationner,repas</t>
+          <t>départements,d',outre-mer,,</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>rationner leurs repas</t>
+          <t>outre-mer , ont</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>faute d’ argent</t>
+          <t>de le jour</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>faute,d’,argent,D’</t>
+          <t>jour,lendemain,,,dû</t>
         </is>
       </c>
     </row>
@@ -720,12 +720,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>perspective,stage,d’,emploi</t>
+          <t>lointains,départements,d',outre-mer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ou d’ emploi</t>
+          <t>départements d' outre-mer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sans diplômes …</t>
+          <t>ont , de</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>diplômes,…,sans-papiers,$</t>
+          <t>,,jour,lendemain,,</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$,$,Loin,proches</t>
+          <t>,,,,jour,lendemain</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>de leurs proches</t>
+          <t>à le lendemain</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>coincés dans de</t>
+          <t>dû adapter leur</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires</t>
+          <t>dû,adapter,quotidien,face</t>
         </is>
       </c>
     </row>
@@ -780,12 +780,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>,,,,jour,lendemain</t>
+          <t>allés,jusqu’,rationner,repas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>à le lendemain</t>
+          <t>rationner leurs repas</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>dû adapter leur</t>
+          <t>faute d’ argent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>dû,adapter,quotidien,face</t>
+          <t>faute,d’,argent,D’</t>
         </is>
       </c>
     </row>
@@ -810,12 +810,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>petites,chambres,universitaires,studettes</t>
+          <t>milliers,d’,étudiants,étrangers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>de les studettes</t>
+          <t>d’ étudiants étrangers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>de les milliers</t>
+          <t>ou venus de</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>milliers,d’,étudiants,étrangers</t>
+          <t>venus,lointains,départements,d'</t>
         </is>
       </c>
     </row>
@@ -840,12 +840,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>français,perdu,job,étudiant</t>
+          <t>perspective,stage,d’,emploi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>leur job étudiant</t>
+          <t>ou d’ emploi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>certains sont allés</t>
+          <t>sans diplômes …</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>allés,jusqu’,rationner,repas</t>
+          <t>diplômes,…,sans-papiers,$</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>le gouvernement</t>
+          <t>le gouvernement français .</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>français . Après</t>
+          <t>Après avoir perdu</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>français,perdu,job,étudiant</t>
+          <t>perdu,job,étudiant,,</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>le gouvernement français</t>
+          <t>le gouvernement</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>. Après avoir</t>
+          <t>français . Après</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>perdu,job,étudiant,,</t>
+          <t>français,perdu,job,étudiant</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>le gouvernement français .</t>
+          <t>le gouvernement français</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Après avoir perdu</t>
+          <t>. Après avoir</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1052,27 +1052,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>d’,argent,D’,retrouvés</t>
+          <t>Loin,proches,,,coincés</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sont retrouvés sans</t>
+          <t>, coincés dans</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>perspective de stage</t>
+          <t>de petites chambres universitaires</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ou d’ emploi</t>
+          <t>ou dans de</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>d’,emploi,,,diplômes</t>
+          <t>studettes,,,milliers,d’</t>
         </is>
       </c>
     </row>
@@ -1082,27 +1082,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Loin,proches,,,coincés</t>
+          <t>d’,argent,D’,retrouvés</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>, coincés dans</t>
+          <t>sont retrouvés sans</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>de petites chambres universitaires</t>
+          <t>perspective de stage</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ou dans de</t>
+          <t>ou d’ emploi</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>studettes,,,milliers,d’</t>
+          <t>d’,emploi,,,diplômes</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>,,diplômes,…,sans-papiers</t>
+          <t>,,faute,d’,argent</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>… et sans-papiers</t>
+          <t>faute d’ argent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>$ $ $</t>
+          <t>D’ autres se</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$,$,$,$</t>
+          <t>D’,retrouvés,perspective,stage</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>,,faute,d’,argent</t>
+          <t>,,diplômes,…,sans-papiers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>faute d’ argent</t>
+          <t>… et sans-papiers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>D’ autres se</t>
+          <t>$ $ $</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>D’,retrouvés,perspective,stage</t>
+          <t>$,$,$,$</t>
         </is>
       </c>
     </row>

--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,27 +404,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$,$,$,Loin</t>
+          <t>économique,jamais,mis,œuvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$ Loin de</t>
+          <t>mis en œuvre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>leurs proches</t>
+          <t>le protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>, coincés dans</t>
+          <t>la défiscalisation de</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>,,coincés,petites,chambres</t>
+          <t>défiscalisation,heures,supplémentaires,suppression</t>
         </is>
       </c>
     </row>
@@ -434,27 +434,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>outre-mer,,,,,jour</t>
+          <t>intéresse,cause,puisqu,met</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>le jour à</t>
+          <t>il met en</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>le lendemain</t>
+          <t>place</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>, dû adapter</t>
+          <t>la politique que</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>,,dû,adapter,quotidien</t>
+          <t>politique,appelle,vœux,notamment</t>
         </is>
       </c>
     </row>
@@ -464,27 +464,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020,gouvernement,français,perdu</t>
+          <t>$,$,mettre,œuvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Après avoir perdu</t>
+          <t>en œuvre de</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>leur job étudiant</t>
+          <t>le protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>, certains sont</t>
+          <t>à mettre en</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>,,allés,jusqu’,rationner</t>
+          <t>mettre,patriotisme,économique,donner</t>
         </is>
       </c>
     </row>
@@ -494,27 +494,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>retrouvés,perspective,stage,d’</t>
+          <t>TPE,PME,met,place</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>stage ou d’</t>
+          <t>met en place</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>emploi</t>
+          <t>un patriotisme économique</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>, sans diplômes</t>
+          <t>un protectionnisme intelligent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>,,diplômes,…,sans-papiers</t>
+          <t>protectionnisme,intelligent,dit,constructeurs</t>
         </is>
       </c>
     </row>
@@ -524,27 +524,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires</t>
+          <t>entreprises,françaises,commande,publique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ou dans de</t>
+          <t>tout cela .</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>les studettes</t>
+          <t>Le patriotisme économique</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>, de les</t>
+          <t>qui n ’</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>,,milliers,d’,étudiants</t>
+          <t>jamais,mis,œuvre,protectionnisme</t>
         </is>
       </c>
     </row>
@@ -554,421 +554,421 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>,,allés,jusqu’,rationner</t>
+          <t>politique,appelle,vœux,notamment</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jusqu’ à rationner</t>
+          <t>longtemps et notamment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>leurs repas</t>
+          <t>la politique</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>, faute d’</t>
+          <t>de patriotisme économique</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>,,faute,d’,argent</t>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cause,puisqu,met,place</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>met en place</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>la politique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>que j’ appelle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>appelle,vœux,notamment,politique</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>met,place,patriotisme,économique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>un patriotisme économique</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>un protectionnisme intelligent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>il dit à</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>dit,constructeurs,américains,voulez</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>petites,chambres,universitaires,studettes</t>
+          <t>œuvre,protectionnisme,intelligent,mettre</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>de les studettes</t>
+          <t>en avant de</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>le patriotisme économique</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>de les milliers</t>
+          <t>pour donner un</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>milliers,d’,étudiants,étrangers</t>
+          <t>donner,avantage,entreprises,françaises</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$,$,Loin,proches</t>
+          <t>américains,voulez,aller,faire</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>de leurs proches</t>
+          <t>voulez aller faire</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>vos voitures</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>coincés dans de</t>
+          <t>à l ’</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>coincés,petites,chambres,universitaires</t>
+          <t>étranger,construire,voiture,étranger</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>français,perdu,job,étudiant</t>
+          <t>faire,voitures,étranger,construire</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>leur job étudiant</t>
+          <t>’ étranger construire</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>une voiture</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>certains sont allés</t>
+          <t>à l’ étranger</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>allés,jusqu’,rationner,repas</t>
+          <t>étranger,paierez,taxe,réimportant</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>départements,d',outre-mer,,</t>
+          <t>notamment,politique,patriotisme,économique</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>outre-mer , ont</t>
+          <t>patriotisme économique de</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>de le jour</t>
+          <t>$ $ $</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>jour,lendemain,,,dû</t>
+          <t>$,$,$,$</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lointains,départements,d',outre-mer</t>
+          <t>exclusivement,TPE,PME,met</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>départements d' outre-mer</t>
+          <t>Il met en</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>place</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ont , de</t>
+          <t>un patriotisme économique</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>,,jour,lendemain,,</t>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>,,,,jour,lendemain</t>
+          <t>appelle,vœux,notamment,politique</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>à le lendemain</t>
+          <t>la politique de</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>patriotisme économique</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dû adapter leur</t>
+          <t>de protectionnisme intelligent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>dû,adapter,quotidien,face</t>
+          <t>protectionnisme,intelligent,$,$</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mettre,patriotisme,économique,donner</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>économique pour donner</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>un avantage</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>à les entreprises</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>entreprises,françaises,commande,publique</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>1</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>allés,jusqu’,rationner,repas</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>rationner leurs repas</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>faute d’ argent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>faute,d’,argent,D’</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Trump,intéresse,cause,puisqu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cause puisqu ’</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>il</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>met en place</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>met,place,politique,appelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>1</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>milliers,d’,étudiants,étrangers</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>d’ étudiants étrangers</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ou venus de</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>venus,lointains,départements,d'</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>perspective,stage,d’,emploi</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ou d’ emploi</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>sans diplômes …</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>diplômes,…,sans-papiers,$</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>charges,exclusivement,TPE,PME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TPE PME .</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Il</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>met en place</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>met,place,patriotisme,économique</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>crise,sanitaire,confinement,imposé</t>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>le confinement imposé</t>
+          <t>un protectionnisme intelligent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>le 17 mars 2020</t>
+          <t>il</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>par le gouvernement</t>
+          <t>dit à les</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>gouvernement,français,perdu,job</t>
+          <t>dit,constructeurs,américains,voulez</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>imposé,17,mars,2020</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>mars 2020 par</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>le gouvernement français .</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Après avoir perdu</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>perdu,job,étudiant,,</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>imposé,17,mars,2020</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>mars 2020 par</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>le gouvernement</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>français . Après</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>français,perdu,job,étudiant</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -976,27 +976,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>imposé,17,mars,2020</t>
+          <t>intelligent,dit,constructeurs,américains</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>mars 2020 par</t>
+          <t>constructeurs américains si</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>le gouvernement français</t>
+          <t>vous</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>. Après avoir</t>
+          <t>voulez aller faire</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>perdu,job,étudiant,,</t>
+          <t>voulez,aller,faire,voitures</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>crise,sanitaire,confinement,imposé</t>
+          <t>étranger,construire,voiture,étranger</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>le confinement imposé</t>
+          <t>l’ étranger alors</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>le 17</t>
+          <t>vous</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>mars 2020 par</t>
+          <t>paierez une taxe</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>mars,2020,gouvernement,français</t>
+          <t>paierez,taxe,réimportant,Etats-Unis</t>
         </is>
       </c>
     </row>
@@ -1052,27 +1052,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Loin,proches,,,coincés</t>
+          <t>taxe,réimportant,Etats-Unis,autant</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>, coincés dans</t>
+          <t>D ’ autant</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>de petites chambres universitaires</t>
+          <t>que</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ou dans de</t>
+          <t>évidemment ce que</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>studettes,,,milliers,d’</t>
+          <t>évidemment,Trump,intéresse,cause</t>
         </is>
       </c>
     </row>
@@ -1082,37 +1082,59 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>d’,argent,D’,retrouvés</t>
+          <t>réimportant,Etats-Unis,autant,évidemment</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sont retrouvés sans</t>
+          <t>que évidemment ce</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>perspective de stage</t>
+          <t>que</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ou d’ emploi</t>
+          <t>fait Trump m</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>d’,emploi,,,diplômes</t>
+          <t>Trump,intéresse,cause,puisqu</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>puisqu,met,place,politique</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>place la politique</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>que</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>j’ appelle de</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>appelle,vœux,notamment,politique</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1123,80 +1145,12 @@
       <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>,,faute,d’,argent</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>faute d’ argent</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>D’ autres se</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>D’,retrouvés,perspective,stage</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>,,diplômes,…,sans-papiers</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>… et sans-papiers</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$ $ $</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$,$,$,$</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/command_line/crs-output/context_visualized.xlsx
+++ b/command_line/crs-output/context_visualized.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,27 +404,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>économique,jamais,mis,œuvre</t>
+          <t>exclusivement,TPE,PME,met</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mis en œuvre</t>
+          <t>Il met en</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>le protectionnisme intelligent</t>
+          <t>place</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>la défiscalisation de</t>
+          <t>un patriotisme économique</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>défiscalisation,heures,supplémentaires,suppression</t>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
     </row>
@@ -434,27 +434,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>intéresse,cause,puisqu,met</t>
+          <t>appelle,vœux,notamment,politique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>il met en</t>
+          <t>la politique de</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>patriotisme économique</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>la politique que</t>
+          <t>de protectionnisme intelligent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>politique,appelle,vœux,notamment</t>
+          <t>protectionnisme,intelligent,$,$</t>
         </is>
       </c>
     </row>
@@ -464,27 +464,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$,$,mettre,œuvre</t>
+          <t>entreprises,françaises,commande,publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>en œuvre de</t>
+          <t>tout cela .</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>le protectionnisme intelligent</t>
+          <t>Le patriotisme économique</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>à mettre en</t>
+          <t>qui n ’</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mettre,patriotisme,économique,donner</t>
+          <t>jamais,mis,œuvre,protectionnisme</t>
         </is>
       </c>
     </row>
@@ -494,27 +494,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TPE,PME,met,place</t>
+          <t>$,$,mettre,œuvre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>met en place</t>
+          <t>en œuvre de</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>un patriotisme économique</t>
+          <t>le protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>un protectionnisme intelligent</t>
+          <t>à mettre en</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>protectionnisme,intelligent,dit,constructeurs</t>
+          <t>mettre,patriotisme,économique,donner</t>
         </is>
       </c>
     </row>
@@ -524,27 +524,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>entreprises,françaises,commande,publique</t>
+          <t>met,place,patriotisme,économique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tout cela .</t>
+          <t>un patriotisme économique</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Le patriotisme économique</t>
+          <t>un protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>qui n ’</t>
+          <t>il dit à</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>jamais,mis,œuvre,protectionnisme</t>
+          <t>dit,constructeurs,américains,voulez</t>
         </is>
       </c>
     </row>
@@ -554,27 +554,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>intéresse,cause,puisqu,met</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>il met en</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>la politique que</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>politique,appelle,vœux,notamment</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>longtemps et notamment</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>la politique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>de patriotisme économique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
     </row>
@@ -584,27 +584,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cause,puisqu,met,place</t>
+          <t>notamment,politique,patriotisme,économique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>met en place</t>
+          <t>patriotisme économique de</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>la politique</t>
+          <t>protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>que j’ appelle</t>
+          <t>$ $ $</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>appelle,vœux,notamment,politique</t>
+          <t>$,$,$,$</t>
         </is>
       </c>
     </row>
@@ -614,27 +614,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>met,place,patriotisme,économique</t>
+          <t>mettre,patriotisme,économique,donner</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>un patriotisme économique</t>
+          <t>économique pour donner</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>un protectionnisme intelligent</t>
+          <t>un avantage</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>il dit à</t>
+          <t>à les entreprises</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>dit,constructeurs,américains,voulez</t>
+          <t>entreprises,françaises,commande,publique</t>
         </is>
       </c>
     </row>
@@ -674,27 +674,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>américains,voulez,aller,faire</t>
+          <t>économique,jamais,mis,œuvre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>voulez aller faire</t>
+          <t>mis en œuvre</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vos voitures</t>
+          <t>le protectionnisme intelligent</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>à l ’</t>
+          <t>la défiscalisation de</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>étranger,construire,voiture,étranger</t>
+          <t>défiscalisation,heures,supplémentaires,suppression</t>
         </is>
       </c>
     </row>
@@ -704,157 +704,135 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>faire,voitures,étranger,construire</t>
+          <t>TPE,PME,met,place</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>’ étranger construire</t>
+          <t>met en place</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>une voiture</t>
+          <t>un patriotisme économique</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>à l’ étranger</t>
+          <t>un protectionnisme intelligent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>étranger,paierez,taxe,réimportant</t>
+          <t>protectionnisme,intelligent,dit,constructeurs</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>notamment,politique,patriotisme,économique</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>patriotisme économique de</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>protectionnisme intelligent</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$ $ $</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$,$,$,$</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>exclusivement,TPE,PME,met</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Il met en</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>un patriotisme économique</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>patriotisme,économique,protectionnisme,intelligent</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>appelle,vœux,notamment,politique</t>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>la politique de</t>
+          <t>un protectionnisme intelligent</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>patriotisme économique</t>
+          <t>il</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>de protectionnisme intelligent</t>
+          <t>dit à les</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>protectionnisme,intelligent,$,$</t>
+          <t>dit,constructeurs,américains,voulez</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mettre,patriotisme,économique,donner</t>
+          <t>Trump,intéresse,cause,puisqu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>économique pour donner</t>
+          <t>cause puisqu ’</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>un avantage</t>
+          <t>il</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>à les entreprises</t>
+          <t>met en place</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>entreprises,françaises,commande,publique</t>
+          <t>met,place,politique,appelle</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>charges,exclusivement,TPE,PME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TPE PME .</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Il</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>met en place</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>met,place,patriotisme,économique</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -865,92 +843,70 @@
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Trump,intéresse,cause,puisqu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>cause puisqu ’</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>il</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>met en place</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>met,place,politique,appelle</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>charges,exclusivement,TPE,PME</t>
+          <t>patriotisme,économique,donner,avantage</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TPE PME .</t>
+          <t>un avantage à</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Il</t>
+          <t>les entreprises françaises</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>met en place</t>
+          <t>dans la commande</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>met,place,patriotisme,économique</t>
+          <t>commande,publique,patriotisme,économique</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>patriotisme,économique,protectionnisme,intelligent</t>
+          <t>économique,protectionnisme,intelligent,dit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>un protectionnisme intelligent</t>
+          <t>il dit à</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>il</t>
+          <t>les constructeurs américains</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>dit à les</t>
+          <t>si vous voulez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>dit,constructeurs,américains,voulez</t>
+          <t>voulez,aller,faire,voitures</t>
         </is>
       </c>
     </row>
@@ -972,16 +928,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>intelligent,dit,constructeurs,américains</t>
+          <t>étranger,construire,voiture,étranger</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>constructeurs américains si</t>
+          <t>l’ étranger alors</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -991,27 +947,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>voulez aller faire</t>
+          <t>paierez une taxe</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>voulez,aller,faire,voitures</t>
+          <t>paierez,taxe,réimportant,Etats-Unis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>étranger,construire,voiture,étranger</t>
+          <t>intelligent,dit,constructeurs,américains</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>l’ étranger alors</t>
+          <t>constructeurs américains si</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1021,12 +977,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>paierez une taxe</t>
+          <t>voulez aller faire</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>paierez,taxe,réimportant,Etats-Unis</t>
+          <t>voulez,aller,faire,voitures</t>
         </is>
       </c>
     </row>
@@ -1048,93 +1004,71 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>taxe,réimportant,Etats-Unis,autant</t>
+          <t>faire,voitures,étranger,construire</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D ’ autant</t>
+          <t>’ étranger construire</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>que</t>
+          <t>une voiture</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>évidemment ce que</t>
+          <t>à l’ étranger</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>évidemment,Trump,intéresse,cause</t>
+          <t>étranger,paierez,taxe,réimportant</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>construire,voiture,étranger,paierez</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>alors vous paierez</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>une taxe</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>en les réimportant</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>réimportant,Etats-Unis,autant,évidemment</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>que évidemment ce</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>fait Trump m</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Trump,intéresse,cause,puisqu</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>puisqu,met,place,politique</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>place la politique</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>que</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>j’ appelle de</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>appelle,vœux,notamment,politique</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1145,14 +1079,370 @@
       <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>paierez,taxe,réimportant,Etats-Unis</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>à les Etats-Unis</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>D ’ autant</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>autant,évidemment,Trump,intéresse</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>entreprises,françaises,commande,publique</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>commande publique voilà</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>tout cela .</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Le patriotisme économique</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>patriotisme,économique,jamais,mis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>voulez,aller,faire,voitures</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>voitures à l</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>’ étranger</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>construire une voiture</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>construire,voiture,étranger,paierez</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>paierez,taxe,réimportant,Etats-Unis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>les Etats-Unis .</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>D ’</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>autant que évidemment</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>autant,évidemment,Trump,intéresse</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>taxe,réimportant,Etats-Unis,autant</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D ’ autant</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>que</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>évidemment ce que</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>évidemment,Trump,intéresse,cause</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>puisqu,met,place,politique</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>place la politique</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>que</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>j’ appelle de</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>appelle,vœux,notamment,politique</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>réimportant,Etats-Unis,autant,évidemment</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>que évidemment ce</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>que</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>fait Trump m</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Trump,intéresse,cause,puisqu</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cause,puisqu,met,place</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>met en place</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>la politique</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>que j’ appelle</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>appelle,vœux,notamment,politique</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>donner,avantage,entreprises,françaises</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>entreprises françaises dans</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>la commande publique</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>voilà tout cela</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>patriotisme,économique,jamais,mis</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>politique,appelle,vœux,notamment</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>longtemps et notamment</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>la politique</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>de patriotisme économique</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>patriotisme,économique,protectionnisme,intelligent</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>